--- a/biology/Médecine/Centre_hospitalier_du_Rouvray/Centre_hospitalier_du_Rouvray.xlsx
+++ b/biology/Médecine/Centre_hospitalier_du_Rouvray/Centre_hospitalier_du_Rouvray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centre hospitalier du Rouvray est un établissement hospitalier situé sur les communes de Sotteville-lès-Rouen et Saint-Étienne-du-Rouvray.
 </t>
@@ -511,12 +523,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Établi à partir de 1822 à Saint-Yon dans le quartier Saint-Clément de Rouen, il est le premier asile d'aliénés en France[1]. En 1845, l'établissement accueille plus de 600 malades[2]. À la demande du médecin-chef Parchappe, le conseil général de la Seine-Inférieure décide en 1849 de l'achat d'un nouveau site de 37 hectares au lieu-dit Les Quatre-Mares à Sotteville-lès-Rouen. Les bâtiments de Quatre-Mares (1850-1854) sont dus à l'architecte Henri Charles Grégoire tandis que ceux de Saint-Yon (1875-1879) sont dus à Louis-François Desmarest. En 1864, l'asile accueille 1541 malades[3]. L'éditeur Eugène Forcade y est interné en 1868. Achille Foville fils (1831-1887) est le médecin-chef de l'établissement de 1872 à 1880.
-En 1920, les asiles d'aliénés de Quatre-Mares[4] et de Saint-Yon[5], respectivement pour hommes et pour femmes, fusionnent sous le nom de « maison de santé départementale », devenue centre hospitalier du Rouvray[6]. Antonin Artaud y est interné en 1937.
-Pendant la Seconde Guerre mondiale, l'hôpital est bombardé le 28 avril 1943[7], dans la nuit du 18 au 19 avril 1944 et pendant la semaine rouge.
-Le musée Art et Déchirure, implanté au Centre hospitalier du Rouvray, expose une collection d'art singulier rassemblée durant les divers festivals Art et déchirure qui se sont déroulés depuis trente ans[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Établi à partir de 1822 à Saint-Yon dans le quartier Saint-Clément de Rouen, il est le premier asile d'aliénés en France. En 1845, l'établissement accueille plus de 600 malades. À la demande du médecin-chef Parchappe, le conseil général de la Seine-Inférieure décide en 1849 de l'achat d'un nouveau site de 37 hectares au lieu-dit Les Quatre-Mares à Sotteville-lès-Rouen. Les bâtiments de Quatre-Mares (1850-1854) sont dus à l'architecte Henri Charles Grégoire tandis que ceux de Saint-Yon (1875-1879) sont dus à Louis-François Desmarest. En 1864, l'asile accueille 1541 malades. L'éditeur Eugène Forcade y est interné en 1868. Achille Foville fils (1831-1887) est le médecin-chef de l'établissement de 1872 à 1880.
+En 1920, les asiles d'aliénés de Quatre-Mares et de Saint-Yon, respectivement pour hommes et pour femmes, fusionnent sous le nom de « maison de santé départementale », devenue centre hospitalier du Rouvray. Antonin Artaud y est interné en 1937.
+Pendant la Seconde Guerre mondiale, l'hôpital est bombardé le 28 avril 1943, dans la nuit du 18 au 19 avril 1944 et pendant la semaine rouge.
+Le musée Art et Déchirure, implanté au Centre hospitalier du Rouvray, expose une collection d'art singulier rassemblée durant les divers festivals Art et déchirure qui se sont déroulés depuis trente ans.
 </t>
         </is>
       </c>
